--- a/src/loadFiles/Documents/CI hardware B.xlsx
+++ b/src/loadFiles/Documents/CI hardware B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CMDB\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE55902-1888-4C45-8B77-679910F346AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7BB1CF-3EA8-4CC1-9A6D-374EEA115090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pserver|Mainframe Bull" sheetId="5" r:id="rId1"/>
@@ -3261,7 +3261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372BB1D4-31E3-4CC2-89CF-2792FA12EAFA}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4277,7 +4277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA06D93-C7BE-482B-B1ED-FC6B5AADCC0F}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4286,7 +4286,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="12" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" style="2" customWidth="1"/>
@@ -4757,18 +4757,62 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2F5A0AA74EE634DB800D477754D2CCB" ma:contentTypeVersion="0" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="333a5f22597eab63bb00e79402ce7adc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3d6ca9f312fcd1c0ab10337cdbdb729">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2F5A0AA74EE634DB800D477754D2CCB" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="dac29f0e060d0d9828bc78d020c13bcb">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="35a18e0c-895f-4e6d-96a9-0d0cdf6d7134" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b817bc98c5af290a1e56b966b0fd4bba" ns2:_="">
+    <xsd:import namespace="35a18e0c-895f-4e6d-96a9-0d0cdf6d7134"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
-              <xsd:all/>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
             </xsd:complexType>
           </xsd:element>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="35a18e0c-895f-4e6d-96a9-0d0cdf6d7134" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -4886,13 +4930,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{677549AD-31DA-4A8F-8590-27FC45B3AADC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2552C015-4DD6-45A0-8F58-998FDE9AE59A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{954BD725-1F08-41E6-967E-C509D11D85FF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3E52DA4-0D81-47FC-968D-7FEAE29D686A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{979C32E5-16F6-4D4A-920E-FD872609EECA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ACBA023-4C7F-47F4-B6C8-7B51EF9EEEB1}"/>
 </file>